--- a/partII_CAMs/outputs/01_dataPreperation/final/networkIndicators.xlsx
+++ b/partII_CAMs/outputs/01_dataPreperation/final/networkIndicators.xlsx
@@ -3061,7 +3061,7 @@
         <v>0.8099798387096774</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8102552671850956</v>
+        <v>0.8102552671850954</v>
       </c>
       <c r="L4" t="n">
         <v>2.4505494505494507</v>
@@ -3498,7 +3498,7 @@
         <v>0.9817288306451613</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8408312495590218</v>
+        <v>0.8408312495590219</v>
       </c>
       <c r="L5" t="n">
         <v>2.593220338983051</v>
@@ -3941,7 +3941,7 @@
         <v>0.7778477822580645</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8075815857467286</v>
+        <v>0.8075815857467289</v>
       </c>
       <c r="L6" t="n">
         <v>1.4923076923076923</v>
@@ -3995,7 +3995,7 @@
         <v>0.32494099134539794</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.519218241042345</v>
+        <v>-0.5192182410423457</v>
       </c>
       <c r="AD6" t="n">
         <v>10.0</v>
@@ -4374,7 +4374,7 @@
         <v>0.7057081653225806</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7535271802753924</v>
+        <v>0.7535271802753926</v>
       </c>
       <c r="L7" t="n">
         <v>3.1235955056179776</v>
@@ -4863,7 +4863,7 @@
         <v>0.43276036400404416</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.5003914518514223</v>
+        <v>-0.5003914518514225</v>
       </c>
       <c r="AD8" t="n">
         <v>15.0</v>
@@ -5246,7 +5246,7 @@
         <v>0.8238092237903226</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8071963941861633</v>
+        <v>0.8071963941861632</v>
       </c>
       <c r="L9" t="n">
         <v>2.0</v>
@@ -5300,7 +5300,7 @@
         <v>0.29726715002788706</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.2768228969485879</v>
+        <v>-0.2768228969485881</v>
       </c>
       <c r="AD9" t="n">
         <v>13.0</v>
@@ -5695,7 +5695,7 @@
         <v>0.3561964465725807</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6942552739016336</v>
+        <v>0.6942552739016333</v>
       </c>
       <c r="L10" t="n">
         <v>3.6016949152542375</v>
@@ -5749,7 +5749,7 @@
         <v>-0.13585746102449855</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.03704555913483681</v>
+        <v>0.03704555913483598</v>
       </c>
       <c r="AD10" t="n">
         <v>5.0</v>
@@ -6158,7 +6158,7 @@
         <v>0.4064390120967742</v>
       </c>
       <c r="K11" t="n">
-        <v>0.688346458372564</v>
+        <v>0.6883464583725643</v>
       </c>
       <c r="L11" t="n">
         <v>4.381443298969073</v>
@@ -6212,7 +6212,7 @@
         <v>-0.016129032258062885</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.3414244650271481</v>
+        <v>-0.34142446502714713</v>
       </c>
       <c r="AD11" t="n">
         <v>5.0</v>
@@ -6617,7 +6617,7 @@
         <v>0.7838961693548387</v>
       </c>
       <c r="K12" t="n">
-        <v>0.78787825088942</v>
+        <v>0.7878782508894199</v>
       </c>
       <c r="L12" t="n">
         <v>3.6184210526315788</v>
@@ -7108,7 +7108,7 @@
         <v>-0.536585365853659</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.9477974332292753</v>
+        <v>-0.9477974332292747</v>
       </c>
       <c r="AD13" t="n">
         <v>32.0</v>
@@ -7533,7 +7533,7 @@
         <v>0.4737431418654124</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.11728060671722616</v>
+        <v>-0.1172806067172261</v>
       </c>
       <c r="AD14" t="n">
         <v>7.0</v>
@@ -7944,7 +7944,7 @@
         <v>0.7809979838709679</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8193855942862854</v>
+        <v>0.8193855942862853</v>
       </c>
       <c r="L15" t="n">
         <v>3.3959390862944163</v>
@@ -7998,7 +7998,7 @@
         <v>0.16126156246517348</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.34992812050753175</v>
+        <v>-0.3499281205075318</v>
       </c>
       <c r="AD15" t="n">
         <v>22.0</v>
@@ -8455,7 +8455,7 @@
         <v>0.5309939712474878</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.23886165325440148</v>
+        <v>-0.23886165325440128</v>
       </c>
       <c r="AD16" t="n">
         <v>14.0</v>
@@ -8860,7 +8860,7 @@
         <v>0.7289881552419355</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7685671690710849</v>
+        <v>0.7685671690710847</v>
       </c>
       <c r="L17" t="n">
         <v>5.424107142857143</v>
@@ -8914,7 +8914,7 @@
         <v>0.41636060100166833</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.24772219357056888</v>
+        <v>-0.24772219357056854</v>
       </c>
       <c r="AD17" t="n">
         <v>7.0</v>
@@ -9313,7 +9313,7 @@
         <v>0.6046496975806451</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8048101383672206</v>
+        <v>0.8048101383672207</v>
       </c>
       <c r="L18" t="n">
         <v>6.841269841269841</v>
@@ -9367,7 +9367,7 @@
         <v>0.36638655462184916</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.15630815035355394</v>
+        <v>-0.15630815035355392</v>
       </c>
       <c r="AD18" t="n">
         <v>13.0</v>
@@ -9788,7 +9788,7 @@
         <v>0.5996633784562212</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7983577904246387</v>
+        <v>0.7983577904246386</v>
       </c>
       <c r="L19" t="n">
         <v>3.4132231404958677</v>
@@ -9842,7 +9842,7 @@
         <v>0.2945563012677071</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.6435770808063305</v>
+        <v>-0.6435770808063304</v>
       </c>
       <c r="AD19" t="n">
         <v>5.0</v>
@@ -10295,7 +10295,7 @@
         <v>0.38144329896907164</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.5871857258718574</v>
+        <v>-0.5871857258718578</v>
       </c>
       <c r="AD20" t="n">
         <v>4.0</v>
@@ -10692,7 +10692,7 @@
         <v>0.39342147654534904</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6486522940218344</v>
+        <v>0.6486522940218341</v>
       </c>
       <c r="L21" t="n">
         <v>5.286773794808405</v>
@@ -11608,7 +11608,7 @@
         <v>0.971648185483871</v>
       </c>
       <c r="K23" t="n">
-        <v>0.835142654377931</v>
+        <v>0.8351426543779311</v>
       </c>
       <c r="L23" t="n">
         <v>2.695067264573991</v>
@@ -11662,7 +11662,7 @@
         <v>-0.08674698795180721</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.6071977768639326</v>
+        <v>-0.6071977768639324</v>
       </c>
       <c r="AD23" t="n">
         <v>32.0</v>
@@ -12119,7 +12119,7 @@
         <v>0.4034883720930234</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.19175805915586588</v>
+        <v>0.19175805915586536</v>
       </c>
       <c r="AD24" t="n">
         <v>6.0</v>
@@ -12548,7 +12548,7 @@
         <v>0.7754536290322581</v>
       </c>
       <c r="K25" t="n">
-        <v>0.818242087670093</v>
+        <v>0.8182420876700929</v>
       </c>
       <c r="L25" t="n">
         <v>4.904109589041096</v>
@@ -12997,7 +12997,7 @@
         <v>0.733429939516129</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7666281563959061</v>
+        <v>0.7666281563959062</v>
       </c>
       <c r="L26" t="n">
         <v>3.656716417910448</v>
@@ -13426,7 +13426,7 @@
         <v>0.5951360887096774</v>
       </c>
       <c r="K27" t="n">
-        <v>0.8048719123037957</v>
+        <v>0.8048719123037962</v>
       </c>
       <c r="L27" t="n">
         <v>2.888111888111888</v>
@@ -13480,7 +13480,7 @@
         <v>0.8798757335174319</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.21721415839062938</v>
+        <v>0.2172141583906295</v>
       </c>
       <c r="AD27" t="n">
         <v>7.0</v>
@@ -14322,7 +14322,7 @@
         <v>0.7448336693548387</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7163428837254006</v>
+        <v>0.7163428837254004</v>
       </c>
       <c r="L29" t="n">
         <v>3.197604790419162</v>
@@ -14376,7 +14376,7 @@
         <v>0.349387166546503</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.35626911314984705</v>
+        <v>-0.35626911314984716</v>
       </c>
       <c r="AD29" t="n">
         <v>13.0</v>
@@ -14791,7 +14791,7 @@
         <v>0.9253402217741935</v>
       </c>
       <c r="K30" t="n">
-        <v>0.8653709817025534</v>
+        <v>0.8653709817025531</v>
       </c>
       <c r="L30" t="n">
         <v>2.0256410256410255</v>
@@ -15228,7 +15228,7 @@
         <v>0.5613659274193549</v>
       </c>
       <c r="K31" t="n">
-        <v>0.793228169672677</v>
+        <v>0.7932281696726771</v>
       </c>
       <c r="L31" t="n">
         <v>4.219178082191781</v>
@@ -15282,7 +15282,7 @@
         <v>0.3125000000000007</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.32722273143904684</v>
+        <v>-0.327222731439046</v>
       </c>
       <c r="AD31" t="n">
         <v>7.0</v>
@@ -15671,7 +15671,7 @@
         <v>0.7960559475806451</v>
       </c>
       <c r="K32" t="n">
-        <v>0.830997173306341</v>
+        <v>0.8309971733063409</v>
       </c>
       <c r="L32" t="n">
         <v>2.365740740740741</v>
@@ -16094,7 +16094,7 @@
         <v>0.6386088709677419</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7991729496169371</v>
+        <v>0.7991729496169369</v>
       </c>
       <c r="L33" t="n">
         <v>6.292993630573249</v>
@@ -16531,7 +16531,7 @@
         <v>0.5385584677419355</v>
       </c>
       <c r="K34" t="n">
-        <v>0.8507406652460413</v>
+        <v>0.8507406652460411</v>
       </c>
       <c r="L34" t="n">
         <v>4.385321100917431</v>
@@ -16994,7 +16994,7 @@
         <v>0.49489667338709675</v>
       </c>
       <c r="K35" t="n">
-        <v>0.8197643151939789</v>
+        <v>0.8197643151939784</v>
       </c>
       <c r="L35" t="n">
         <v>1.7848101265822784</v>
@@ -17445,7 +17445,7 @@
         <v>0.22501073145604392</v>
       </c>
       <c r="K36" t="n">
-        <v>0.6285398419785789</v>
+        <v>0.6285398419785793</v>
       </c>
       <c r="L36" t="n">
         <v>3.014018691588785</v>
@@ -17499,7 +17499,7 @@
         <v>0.523569247111937</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.15421115065243235</v>
+        <v>0.15421115065243252</v>
       </c>
       <c r="AD36" t="n">
         <v>3.0</v>
@@ -17926,7 +17926,7 @@
         <v>0.8228326612903226</v>
       </c>
       <c r="K37" t="n">
-        <v>0.8679119545566172</v>
+        <v>0.8679119545566173</v>
       </c>
       <c r="L37" t="n">
         <v>2.9798657718120807</v>
@@ -17980,7 +17980,7 @@
         <v>-0.29411764705882343</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.30104696380496543</v>
+        <v>-0.30104696380496554</v>
       </c>
       <c r="AD37" t="n">
         <v>12.0</v>
@@ -18369,7 +18369,7 @@
         <v>0.9344758064516129</v>
       </c>
       <c r="K38" t="n">
-        <v>0.8465878751798598</v>
+        <v>0.8465878751798597</v>
       </c>
       <c r="L38" t="n">
         <v>1.89010989010989</v>
@@ -18816,7 +18816,7 @@
         <v>0.9920614919354839</v>
       </c>
       <c r="K39" t="n">
-        <v>0.8531514508728206</v>
+        <v>0.8531514508728205</v>
       </c>
       <c r="L39" t="n">
         <v>2.459016393442623</v>
@@ -19241,7 +19241,7 @@
         <v>0.577179939516129</v>
       </c>
       <c r="K40" t="n">
-        <v>0.831178404679555</v>
+        <v>0.8311784046795547</v>
       </c>
       <c r="L40" t="n">
         <v>2.4380952380952383</v>
@@ -19295,7 +19295,7 @@
         <v>0.4177557458314541</v>
       </c>
       <c r="AC40" t="n">
-        <v>-0.24985574148874742</v>
+        <v>-0.2498557414887475</v>
       </c>
       <c r="AD40" t="n">
         <v>5.0</v>
@@ -20137,7 +20137,7 @@
         <v>0.5831338205645161</v>
       </c>
       <c r="K42" t="n">
-        <v>0.6929702312693616</v>
+        <v>0.6929702312693619</v>
       </c>
       <c r="L42" t="n">
         <v>2.767857142857143</v>
@@ -20654,7 +20654,7 @@
         <v>0.038587311968607055</v>
       </c>
       <c r="AC43" t="n">
-        <v>-0.5348995573714675</v>
+        <v>-0.5348995573714672</v>
       </c>
       <c r="AD43" t="n">
         <v>8.0</v>
@@ -21043,7 +21043,7 @@
         <v>0.7035696284562213</v>
       </c>
       <c r="K44" t="n">
-        <v>0.844936328919193</v>
+        <v>0.8449363289191932</v>
       </c>
       <c r="L44" t="n">
         <v>6.083333333333333</v>
@@ -21097,7 +21097,7 @@
         <v>0.20409157330735495</v>
       </c>
       <c r="AC44" t="n">
-        <v>-0.29767459083166703</v>
+        <v>-0.29767459083166675</v>
       </c>
       <c r="AD44" t="n">
         <v>13.0</v>
@@ -21564,7 +21564,7 @@
         <v>0.35997817487382366</v>
       </c>
       <c r="AC45" t="n">
-        <v>-0.14195441209659207</v>
+        <v>-0.1419544120965931</v>
       </c>
       <c r="AD45" t="n">
         <v>6.0</v>
@@ -21973,7 +21973,7 @@
         <v>0.6334425403225806</v>
       </c>
       <c r="K46" t="n">
-        <v>0.7747759258224263</v>
+        <v>0.7747759258224265</v>
       </c>
       <c r="L46" t="n">
         <v>2.0549450549450547</v>
@@ -22027,7 +22027,7 @@
         <v>0.27211457455770865</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.515447991761071</v>
+        <v>-0.5154479917610705</v>
       </c>
       <c r="AD46" t="n">
         <v>7.0</v>
@@ -22416,7 +22416,7 @@
         <v>0.4610635080645161</v>
       </c>
       <c r="K47" t="n">
-        <v>0.7877508463953026</v>
+        <v>0.787750846395303</v>
       </c>
       <c r="L47" t="n">
         <v>6.690721649484536</v>
@@ -22470,7 +22470,7 @@
         <v>0.4919532975702107</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.23491179201485615</v>
+        <v>-0.23491179201485515</v>
       </c>
       <c r="AD47" t="n">
         <v>1.0</v>
@@ -22935,7 +22935,7 @@
         <v>0.11703456892961316</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.27539916333750314</v>
+        <v>-0.2753991633375031</v>
       </c>
       <c r="AD48" t="n">
         <v>17.0</v>
@@ -23348,7 +23348,7 @@
         <v>0.6295992943548387</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8133185404162527</v>
+        <v>0.8133185404162531</v>
       </c>
       <c r="L49" t="n">
         <v>3.5816326530612246</v>
@@ -23402,7 +23402,7 @@
         <v>0.470522803114571</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.19334975369458104</v>
+        <v>-0.1933497536945809</v>
       </c>
       <c r="AD49" t="n">
         <v>5.0</v>
@@ -23807,7 +23807,7 @@
         <v>0.3424944196428571</v>
       </c>
       <c r="K50" t="n">
-        <v>0.7090931053457288</v>
+        <v>0.709093105345729</v>
       </c>
       <c r="L50" t="n">
         <v>3.118811881188119</v>
@@ -23861,7 +23861,7 @@
         <v>0.04524699045247035</v>
       </c>
       <c r="AC50" t="n">
-        <v>-0.09891031014249702</v>
+        <v>-0.0989103101424971</v>
       </c>
       <c r="AD50" t="n">
         <v>2.0</v>
@@ -24282,7 +24282,7 @@
         <v>0.5493951612903225</v>
       </c>
       <c r="K51" t="n">
-        <v>0.744814150177529</v>
+        <v>0.7448141501775288</v>
       </c>
       <c r="L51" t="n">
         <v>3.5859375</v>
@@ -24336,7 +24336,7 @@
         <v>0.4094794094794095</v>
       </c>
       <c r="AC51" t="n">
-        <v>-0.2912267229794589</v>
+        <v>-0.29122672297945923</v>
       </c>
       <c r="AD51" t="n">
         <v>6.0</v>
@@ -24739,7 +24739,7 @@
         <v>0.20331716229838706</v>
       </c>
       <c r="K52" t="n">
-        <v>0.7458293863794616</v>
+        <v>0.7458293863794617</v>
       </c>
       <c r="L52" t="n">
         <v>2.893548387096774</v>
@@ -24793,7 +24793,7 @@
         <v>0.8016260162601629</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.39931068439192546</v>
+        <v>0.39931068439192485</v>
       </c>
       <c r="AD52" t="n">
         <v>5.0</v>
@@ -25216,7 +25216,7 @@
         <v>0.7794858870967742</v>
       </c>
       <c r="K53" t="n">
-        <v>0.8487488098680787</v>
+        <v>0.8487488098680784</v>
       </c>
       <c r="L53" t="n">
         <v>3.872</v>
@@ -25657,7 +25657,7 @@
         <v>0.6103515625</v>
       </c>
       <c r="K54" t="n">
-        <v>0.8018923215247438</v>
+        <v>0.8018923215247439</v>
       </c>
       <c r="L54" t="n">
         <v>3.3900709219858154</v>
@@ -25711,7 +25711,7 @@
         <v>0.19927536231884033</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.4997068308413954</v>
+        <v>-0.49970683084139567</v>
       </c>
       <c r="AD54" t="n">
         <v>11.0</v>
@@ -26547,7 +26547,7 @@
         <v>0.6125702044930875</v>
       </c>
       <c r="K56" t="n">
-        <v>0.7225710144665957</v>
+        <v>0.722571014466596</v>
       </c>
       <c r="L56" t="n">
         <v>3.6148148148148147</v>
@@ -26601,7 +26601,7 @@
         <v>0.41985353946297826</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.22520623519920882</v>
+        <v>-0.2252062351992091</v>
       </c>
       <c r="AD56" t="n">
         <v>18.0</v>
@@ -27024,7 +27024,7 @@
         <v>0.8600680443548387</v>
       </c>
       <c r="K57" t="n">
-        <v>0.8446978987631333</v>
+        <v>0.8446978987631332</v>
       </c>
       <c r="L57" t="n">
         <v>5.254237288135593</v>
@@ -27457,7 +27457,7 @@
         <v>0.41655115927419356</v>
       </c>
       <c r="K58" t="n">
-        <v>0.7819998392808725</v>
+        <v>0.7819998392808721</v>
       </c>
       <c r="L58" t="n">
         <v>5.30635838150289</v>
@@ -27511,7 +27511,7 @@
         <v>0.405099150141643</v>
       </c>
       <c r="AC58" t="n">
-        <v>-0.40925046458806524</v>
+        <v>-0.409250464588065</v>
       </c>
       <c r="AD58" t="n">
         <v>4.0</v>
@@ -27924,7 +27924,7 @@
         <v>0.6133442540322581</v>
       </c>
       <c r="K59" t="n">
-        <v>0.823320874972282</v>
+        <v>0.8233208749722816</v>
       </c>
       <c r="L59" t="n">
         <v>3.0833333333333335</v>
@@ -27978,7 +27978,7 @@
         <v>0.20677966101695006</v>
       </c>
       <c r="AC59" t="n">
-        <v>-0.5783079785487576</v>
+        <v>-0.5783079785487577</v>
       </c>
       <c r="AD59" t="n">
         <v>4.0</v>
@@ -28363,7 +28363,7 @@
         <v>0.3631174395161292</v>
       </c>
       <c r="K60" t="n">
-        <v>0.7403796965280166</v>
+        <v>0.7403796965280165</v>
       </c>
       <c r="L60" t="n">
         <v>3.757309941520468</v>
@@ -28417,7 +28417,7 @@
         <v>0.15400975853872068</v>
       </c>
       <c r="AC60" t="n">
-        <v>-0.024446902654867132</v>
+        <v>-0.02444690265486665</v>
       </c>
       <c r="AD60" t="n">
         <v>8.0</v>
@@ -28882,7 +28882,7 @@
         <v>-0.1692735488355941</v>
       </c>
       <c r="AC61" t="n">
-        <v>-0.321710777926868</v>
+        <v>-0.32171077792686803</v>
       </c>
       <c r="AD61" t="n">
         <v>26.0</v>
@@ -29363,7 +29363,7 @@
         <v>-0.5095067511711215</v>
       </c>
       <c r="AC62" t="n">
-        <v>-0.9477974332292753</v>
+        <v>-0.9477974332292747</v>
       </c>
       <c r="AD62" t="n">
         <v>32.0</v>
@@ -29788,7 +29788,7 @@
         <v>0.07248636009353206</v>
       </c>
       <c r="AC63" t="n">
-        <v>-0.019006573235768567</v>
+        <v>-0.019006573235768844</v>
       </c>
       <c r="AD63" t="n">
         <v>15.0</v>
@@ -30213,7 +30213,7 @@
         <v>0.810704385080645</v>
       </c>
       <c r="K64" t="n">
-        <v>0.8100410963246136</v>
+        <v>0.8100410963246134</v>
       </c>
       <c r="L64" t="n">
         <v>4.0627450980392155</v>
@@ -30688,7 +30688,7 @@
         <v>0.6790574596774194</v>
       </c>
       <c r="K65" t="n">
-        <v>0.853960804672127</v>
+        <v>0.8539608046721274</v>
       </c>
       <c r="L65" t="n">
         <v>2.5774647887323945</v>
@@ -31133,7 +31133,7 @@
         <v>0.7464087701612904</v>
       </c>
       <c r="K66" t="n">
-        <v>0.8083286401027557</v>
+        <v>0.8083286401027566</v>
       </c>
       <c r="L66" t="n">
         <v>2.1549295774647885</v>
@@ -31187,7 +31187,7 @@
         <v>0.5725509058842383</v>
       </c>
       <c r="AC66" t="n">
-        <v>-0.33099722587239044</v>
+        <v>-0.33099722587239067</v>
       </c>
       <c r="AD66" t="n">
         <v>5.0</v>
@@ -31598,7 +31598,7 @@
         <v>0.665007560483871</v>
       </c>
       <c r="K67" t="n">
-        <v>0.7347991894419439</v>
+        <v>0.7347991894419433</v>
       </c>
       <c r="L67" t="n">
         <v>5.486301369863014</v>
@@ -31652,7 +31652,7 @@
         <v>-0.01659751037344532</v>
       </c>
       <c r="AC67" t="n">
-        <v>-0.4570207020702069</v>
+        <v>-0.4570207020702064</v>
       </c>
       <c r="AD67" t="n">
         <v>4.0</v>
@@ -32051,7 +32051,7 @@
         <v>0.606413810483871</v>
       </c>
       <c r="K68" t="n">
-        <v>0.6909438795984532</v>
+        <v>0.6909438795984538</v>
       </c>
       <c r="L68" t="n">
         <v>2.67816091954023</v>
@@ -32105,7 +32105,7 @@
         <v>-0.10008271298594226</v>
       </c>
       <c r="AC68" t="n">
-        <v>-0.5376797998749218</v>
+        <v>-0.5376797998749219</v>
       </c>
       <c r="AD68" t="n">
         <v>3.0</v>
@@ -32500,7 +32500,7 @@
         <v>0.6164944556451613</v>
       </c>
       <c r="K69" t="n">
-        <v>0.8078657042322898</v>
+        <v>0.8078657042322904</v>
       </c>
       <c r="L69" t="n">
         <v>3.2742857142857145</v>
@@ -32554,7 +32554,7 @@
         <v>0.01029109085563058</v>
       </c>
       <c r="AC69" t="n">
-        <v>-0.6369995176073323</v>
+        <v>-0.636999517607332</v>
       </c>
       <c r="AD69" t="n">
         <v>3.0</v>
@@ -32941,7 +32941,7 @@
         <v>0.8315902217741935</v>
       </c>
       <c r="K70" t="n">
-        <v>0.8589271996333094</v>
+        <v>0.8589271996333093</v>
       </c>
       <c r="L70" t="n">
         <v>3.277227722772277</v>
@@ -32995,7 +32995,7 @@
         <v>-0.32380073800737946</v>
       </c>
       <c r="AC70" t="n">
-        <v>-0.21975582685904563</v>
+        <v>-0.2197558268590455</v>
       </c>
       <c r="AD70" t="n">
         <v>11.0</v>
@@ -33398,7 +33398,7 @@
         <v>0.9395161290322581</v>
       </c>
       <c r="K71" t="n">
-        <v>0.7827870920300739</v>
+        <v>0.782787092030074</v>
       </c>
       <c r="L71" t="n">
         <v>1.916083916083916</v>
@@ -33847,7 +33847,7 @@
         <v>0.4772051411290323</v>
       </c>
       <c r="K72" t="n">
-        <v>0.7529784929913089</v>
+        <v>0.752978492991309</v>
       </c>
       <c r="L72" t="n">
         <v>5.436781609195402</v>
@@ -34763,7 +34763,7 @@
         <v>0.7347215221774194</v>
       </c>
       <c r="K74" t="n">
-        <v>0.8316134475501452</v>
+        <v>0.8316134475501454</v>
       </c>
       <c r="L74" t="n">
         <v>4.28042328042328</v>
@@ -35208,7 +35208,7 @@
         <v>0.6887915826612904</v>
       </c>
       <c r="K75" t="n">
-        <v>0.743185312294892</v>
+        <v>0.7431853122948922</v>
       </c>
       <c r="L75" t="n">
         <v>3.0118343195266273</v>
@@ -35262,7 +35262,7 @@
         <v>0.20751667003435054</v>
       </c>
       <c r="AC75" t="n">
-        <v>-0.27217567177116436</v>
+        <v>-0.2721756717711647</v>
       </c>
       <c r="AD75" t="n">
         <v>6.0</v>
@@ -36102,7 +36102,7 @@
         <v>0.9213709677419355</v>
       </c>
       <c r="K77" t="n">
-        <v>0.8694555935540969</v>
+        <v>0.8694555935540967</v>
       </c>
       <c r="L77" t="n">
         <v>3.4204545454545454</v>
@@ -36593,7 +36593,7 @@
         <v>-0.46620046620046457</v>
       </c>
       <c r="AC78" t="n">
-        <v>-0.6894884766722879</v>
+        <v>-0.689488476672288</v>
       </c>
       <c r="AD78" t="n">
         <v>7.0</v>
@@ -37028,7 +37028,7 @@
         <v>-0.03238866396761101</v>
       </c>
       <c r="AC79" t="n">
-        <v>-0.22639195486877647</v>
+        <v>-0.22639195486877622</v>
       </c>
       <c r="AD79" t="n">
         <v>11.0</v>
@@ -37443,7 +37443,7 @@
         <v>0.7024886592741936</v>
       </c>
       <c r="K80" t="n">
-        <v>0.6977412906433536</v>
+        <v>0.6977412906433534</v>
       </c>
       <c r="L80" t="n">
         <v>2.1704545454545454</v>
@@ -37497,7 +37497,7 @@
         <v>0.2253521126760548</v>
       </c>
       <c r="AC80" t="n">
-        <v>-0.22999400119976002</v>
+        <v>-0.2299940011997597</v>
       </c>
       <c r="AD80" t="n">
         <v>8.0</v>
@@ -37958,7 +37958,7 @@
         <v>0.2573289902280127</v>
       </c>
       <c r="AC81" t="n">
-        <v>-0.46042568665553</v>
+        <v>-0.4604256866555301</v>
       </c>
       <c r="AD81" t="n">
         <v>20.0</v>
@@ -38349,7 +38349,7 @@
         <v>0.7670740927419355</v>
       </c>
       <c r="K82" t="n">
-        <v>0.7896436394706854</v>
+        <v>0.7896436394706853</v>
       </c>
       <c r="L82" t="n">
         <v>5.302158273381295</v>
@@ -38403,7 +38403,7 @@
         <v>0.36986301369862956</v>
       </c>
       <c r="AC82" t="n">
-        <v>-0.4304824561403511</v>
+        <v>-0.43048245614035074</v>
       </c>
       <c r="AD82" t="n">
         <v>9.0</v>
@@ -38790,7 +38790,7 @@
         <v>0.6422631048387094</v>
       </c>
       <c r="K83" t="n">
-        <v>0.7545667148537126</v>
+        <v>0.7545667148537131</v>
       </c>
       <c r="L83" t="n">
         <v>4.007042253521127</v>
@@ -38844,7 +38844,7 @@
         <v>0.48979591836734776</v>
       </c>
       <c r="AC83" t="n">
-        <v>-0.4484964811260396</v>
+        <v>-0.44849648112603996</v>
       </c>
       <c r="AD83" t="n">
         <v>6.0</v>
@@ -39245,7 +39245,7 @@
         <v>0.8162802419354839</v>
       </c>
       <c r="K84" t="n">
-        <v>0.8412926058869494</v>
+        <v>0.8412926058869492</v>
       </c>
       <c r="L84" t="n">
         <v>4.593886462882096</v>
@@ -39299,7 +39299,7 @@
         <v>0.49400798934753676</v>
       </c>
       <c r="AC84" t="n">
-        <v>-0.3641409171422948</v>
+        <v>-0.36414091714229485</v>
       </c>
       <c r="AD84" t="n">
         <v>13.0</v>
@@ -39700,7 +39700,7 @@
         <v>0.9691595262096774</v>
       </c>
       <c r="K85" t="n">
-        <v>0.849096608341949</v>
+        <v>0.8490966083419492</v>
       </c>
       <c r="L85" t="n">
         <v>3.2251908396946565</v>
@@ -39754,7 +39754,7 @@
         <v>-0.27433628318583897</v>
       </c>
       <c r="AC85" t="n">
-        <v>-0.6854658572026463</v>
+        <v>-0.6854658572026464</v>
       </c>
       <c r="AD85" t="n">
         <v>28.0</v>
@@ -40137,7 +40137,7 @@
         <v>0.44030367943548393</v>
       </c>
       <c r="K86" t="n">
-        <v>0.717397093306612</v>
+        <v>0.7173970933066119</v>
       </c>
       <c r="L86" t="n">
         <v>2.082089552238806</v>
@@ -40191,7 +40191,7 @@
         <v>0.23128012854847457</v>
       </c>
       <c r="AC86" t="n">
-        <v>-0.3772084511728498</v>
+        <v>-0.3772084511728496</v>
       </c>
       <c r="AD86" t="n">
         <v>8.0</v>
@@ -40608,7 +40608,7 @@
         <v>0.582019999279954</v>
       </c>
       <c r="K87" t="n">
-        <v>0.7596217990213575</v>
+        <v>0.7596217990213573</v>
       </c>
       <c r="L87" t="n">
         <v>3.476923076923077</v>
@@ -40662,7 +40662,7 @@
         <v>-0.04187537567621786</v>
       </c>
       <c r="AC87" t="n">
-        <v>-0.13023708996427433</v>
+        <v>-0.13023708996427386</v>
       </c>
       <c r="AD87" t="n">
         <v>5.0</v>
@@ -41069,7 +41069,7 @@
         <v>0.9017137096774194</v>
       </c>
       <c r="K88" t="n">
-        <v>0.8631353493220089</v>
+        <v>0.8631353493220086</v>
       </c>
       <c r="L88" t="n">
         <v>3.1534391534391535</v>
@@ -41123,7 +41123,7 @@
         <v>0.22236149410879932</v>
       </c>
       <c r="AC88" t="n">
-        <v>-0.5803339343840012</v>
+        <v>-0.580333934384001</v>
       </c>
       <c r="AD88" t="n">
         <v>21.0</v>
@@ -41556,7 +41556,7 @@
         <v>0.15078456461714596</v>
       </c>
       <c r="AC89" t="n">
-        <v>-0.3374637639970445</v>
+        <v>-0.3374637639970443</v>
       </c>
       <c r="AD89" t="n">
         <v>29.0</v>
@@ -42037,7 +42037,7 @@
         <v>0.05617977528089973</v>
       </c>
       <c r="AC90" t="n">
-        <v>-0.5294005254358728</v>
+        <v>-0.5294005254358726</v>
       </c>
       <c r="AD90" t="n">
         <v>25.0</v>
@@ -42434,7 +42434,7 @@
         <v>0.7202620967741935</v>
       </c>
       <c r="K91" t="n">
-        <v>0.7431682322065606</v>
+        <v>0.7431682322065608</v>
       </c>
       <c r="L91" t="n">
         <v>2.335616438356164</v>
@@ -42488,7 +42488,7 @@
         <v>-0.09661538461538358</v>
       </c>
       <c r="AC91" t="n">
-        <v>-0.7269164829782022</v>
+        <v>-0.7269164829782018</v>
       </c>
       <c r="AD91" t="n">
         <v>6.0</v>
@@ -42871,7 +42871,7 @@
         <v>0.34378780241935486</v>
       </c>
       <c r="K92" t="n">
-        <v>0.7004754512889334</v>
+        <v>0.7004754512889333</v>
       </c>
       <c r="L92" t="n">
         <v>7.704845814977974</v>
@@ -43390,7 +43390,7 @@
         <v>-0.08273894436519333</v>
       </c>
       <c r="AC93" t="n">
-        <v>-0.7644820814923905</v>
+        <v>-0.7644820814923909</v>
       </c>
       <c r="AD93" t="n">
         <v>5.0</v>
@@ -43763,7 +43763,7 @@
         <v>0.6946824596774193</v>
       </c>
       <c r="K94" t="n">
-        <v>0.7993128942138408</v>
+        <v>0.7993128942138406</v>
       </c>
       <c r="L94" t="n">
         <v>2.5815217391304346</v>
@@ -43817,7 +43817,7 @@
         <v>0.5125229077580946</v>
       </c>
       <c r="AC94" t="n">
-        <v>-0.11004126547455285</v>
+        <v>-0.11004126547455252</v>
       </c>
       <c r="AD94" t="n">
         <v>9.0</v>
@@ -44234,7 +44234,7 @@
         <v>0.7693422379032258</v>
       </c>
       <c r="K95" t="n">
-        <v>0.8096574550950912</v>
+        <v>0.8096574550950913</v>
       </c>
       <c r="L95" t="n">
         <v>1.859504132231405</v>
@@ -44288,7 +44288,7 @@
         <v>0.4631288766368018</v>
       </c>
       <c r="AC95" t="n">
-        <v>-0.6279528833085235</v>
+        <v>-0.6279528833085237</v>
       </c>
       <c r="AD95" t="n">
         <v>6.0</v>
@@ -44727,7 +44727,7 @@
         <v>0.26937269372693706</v>
       </c>
       <c r="AC96" t="n">
-        <v>-0.3738979621332565</v>
+        <v>-0.37389796213325643</v>
       </c>
       <c r="AD96" t="n">
         <v>1.0</v>
@@ -45150,7 +45150,7 @@
         <v>0.7271925403225806</v>
       </c>
       <c r="K97" t="n">
-        <v>0.8050571852457586</v>
+        <v>0.8050571852457588</v>
       </c>
       <c r="L97" t="n">
         <v>3.8275862068965516</v>
@@ -45591,7 +45591,7 @@
         <v>0.9797127016129032</v>
       </c>
       <c r="K98" t="n">
-        <v>0.8398251475571612</v>
+        <v>0.8398251475571613</v>
       </c>
       <c r="L98" t="n">
         <v>1.6590909090909092</v>
@@ -46036,7 +46036,7 @@
         <v>0.8319682459677419</v>
       </c>
       <c r="K99" t="n">
-        <v>0.8666004107105639</v>
+        <v>0.8666004107105638</v>
       </c>
       <c r="L99" t="n">
         <v>3.4054054054054053</v>
@@ -46475,7 +46475,7 @@
         <v>0.7638608870967742</v>
       </c>
       <c r="K100" t="n">
-        <v>0.858025302331418</v>
+        <v>0.8580253023314179</v>
       </c>
       <c r="L100" t="n">
         <v>3.2119205298013247</v>
@@ -46912,7 +46912,7 @@
         <v>0.8295110887096774</v>
       </c>
       <c r="K101" t="n">
-        <v>0.8373447253631505</v>
+        <v>0.8373447253631504</v>
       </c>
       <c r="L101" t="n">
         <v>5.920454545454546</v>
@@ -46966,7 +46966,7 @@
         <v>0.26633785450061587</v>
       </c>
       <c r="AC101" t="n">
-        <v>-0.3794224765868887</v>
+        <v>-0.37942247658688844</v>
       </c>
       <c r="AD101" t="n">
         <v>13.0</v>
@@ -47355,7 +47355,7 @@
         <v>0.3296055947580645</v>
       </c>
       <c r="K102" t="n">
-        <v>0.803485655196978</v>
+        <v>0.8034856551969785</v>
       </c>
       <c r="L102" t="n">
         <v>3.5357142857142856</v>
@@ -47818,7 +47818,7 @@
         <v>0.8097908266129032</v>
       </c>
       <c r="K103" t="n">
-        <v>0.8312285821178379</v>
+        <v>0.831228582117838</v>
       </c>
       <c r="L103" t="n">
         <v>3.7477477477477477</v>
@@ -47872,7 +47872,7 @@
         <v>0.45974025974025995</v>
       </c>
       <c r="AC103" t="n">
-        <v>-0.25686059275521383</v>
+        <v>-0.2568605927552144</v>
       </c>
       <c r="AD103" t="n">
         <v>12.0</v>
@@ -48331,7 +48331,7 @@
         <v>0.05615409729023796</v>
       </c>
       <c r="AC104" t="n">
-        <v>-0.48880735809377623</v>
+        <v>-0.4888073580937762</v>
       </c>
       <c r="AD104" t="n">
         <v>32.0</v>
@@ -48738,7 +48738,7 @@
         <v>0.6970136088709677</v>
       </c>
       <c r="K105" t="n">
-        <v>0.8904273540729621</v>
+        <v>0.8904273540729624</v>
       </c>
       <c r="L105" t="n">
         <v>2.625</v>
@@ -49199,7 +49199,7 @@
         <v>0.6746471774193549</v>
       </c>
       <c r="K106" t="n">
-        <v>0.7763923695873164</v>
+        <v>0.7763923695873173</v>
       </c>
       <c r="L106" t="n">
         <v>1.9682539682539681</v>
@@ -49253,7 +49253,7 @@
         <v>-0.046869654464591605</v>
       </c>
       <c r="AC106" t="n">
-        <v>-0.5065458207452164</v>
+        <v>-0.5065458207452166</v>
       </c>
       <c r="AD106" t="n">
         <v>3.0</v>
@@ -49644,7 +49644,7 @@
         <v>0.2710361463133641</v>
       </c>
       <c r="K107" t="n">
-        <v>0.7317497810761587</v>
+        <v>0.7317497810761585</v>
       </c>
       <c r="L107" t="n">
         <v>4.418079096045198</v>
@@ -49698,7 +49698,7 @@
         <v>0.014769765421372476</v>
       </c>
       <c r="AC107" t="n">
-        <v>-0.32581071872369494</v>
+        <v>-0.32581071872369566</v>
       </c>
       <c r="AD107" t="n">
         <v>5.0</v>
@@ -50121,7 +50121,7 @@
         <v>0.4101278981854839</v>
       </c>
       <c r="K108" t="n">
-        <v>0.8080401519225284</v>
+        <v>0.8080401519225282</v>
       </c>
       <c r="L108" t="n">
         <v>6.059701492537314</v>
@@ -50175,7 +50175,7 @@
         <v>0.3208984631551301</v>
       </c>
       <c r="AC108" t="n">
-        <v>-0.29212869864981356</v>
+        <v>-0.2921286986498133</v>
       </c>
       <c r="AD108" t="n">
         <v>13.0</v>
@@ -50590,7 +50590,7 @@
         <v>0.31446460073444704</v>
       </c>
       <c r="K109" t="n">
-        <v>0.7668008246502409</v>
+        <v>0.766800824650241</v>
       </c>
       <c r="L109" t="n">
         <v>2.6464088397790055</v>
@@ -50644,7 +50644,7 @@
         <v>0.132069303694018</v>
       </c>
       <c r="AC109" t="n">
-        <v>-0.3498467357986042</v>
+        <v>-0.349846735798604</v>
       </c>
       <c r="AD109" t="n">
         <v>15.0</v>
@@ -51061,7 +51061,7 @@
         <v>0.6209992439516129</v>
       </c>
       <c r="K110" t="n">
-        <v>0.8276978894895276</v>
+        <v>0.8276978894895278</v>
       </c>
       <c r="L110" t="n">
         <v>4.9957081545064375</v>
@@ -51115,7 +51115,7 @@
         <v>0.18367346938775325</v>
       </c>
       <c r="AC110" t="n">
-        <v>-0.5937034049522135</v>
+        <v>-0.5937034049522134</v>
       </c>
       <c r="AD110" t="n">
         <v>3.0</v>
@@ -51514,7 +51514,7 @@
         <v>0.7983803463421659</v>
       </c>
       <c r="K111" t="n">
-        <v>0.8168864014052084</v>
+        <v>0.8168864014052083</v>
       </c>
       <c r="L111" t="n">
         <v>3.4434782608695653</v>
@@ -51568,7 +51568,7 @@
         <v>0.06194690265486796</v>
       </c>
       <c r="AC111" t="n">
-        <v>-0.11518496119342804</v>
+        <v>-0.11518496119342829</v>
       </c>
       <c r="AD111" t="n">
         <v>14.0</v>
@@ -51993,7 +51993,7 @@
         <v>0.6517137096774194</v>
       </c>
       <c r="K112" t="n">
-        <v>0.7511597364880744</v>
+        <v>0.7511597364880745</v>
       </c>
       <c r="L112" t="n">
         <v>1.8857142857142857</v>
@@ -52436,7 +52436,7 @@
         <v>0.6651335685483871</v>
       </c>
       <c r="K113" t="n">
-        <v>0.836742192102181</v>
+        <v>0.8367421921021809</v>
       </c>
       <c r="L113" t="n">
         <v>2.642857142857143</v>
@@ -52903,7 +52903,7 @@
         <v>0.5372983870967742</v>
       </c>
       <c r="K114" t="n">
-        <v>0.8754612729518685</v>
+        <v>0.8754612729518692</v>
       </c>
       <c r="L114" t="n">
         <v>2.710526315789474</v>
@@ -52957,7 +52957,7 @@
         <v>-0.45750184774574926</v>
       </c>
       <c r="AC114" t="n">
-        <v>-0.609935464505478</v>
+        <v>-0.6099354645054785</v>
       </c>
       <c r="AD114" t="n">
         <v>4.0</v>
@@ -53342,7 +53342,7 @@
         <v>0.6549899193548387</v>
       </c>
       <c r="K115" t="n">
-        <v>0.8052424027497248</v>
+        <v>0.8052424027497246</v>
       </c>
       <c r="L115" t="n">
         <v>4.142857142857143</v>
@@ -53396,7 +53396,7 @@
         <v>0.30117647058823654</v>
       </c>
       <c r="AC115" t="n">
-        <v>-0.33321623045845755</v>
+        <v>-0.3332162304584574</v>
       </c>
       <c r="AD115" t="n">
         <v>4.0</v>
@@ -53793,7 +53793,7 @@
         <v>0.9055884576612904</v>
       </c>
       <c r="K116" t="n">
-        <v>0.8529458481346195</v>
+        <v>0.8529458481346194</v>
       </c>
       <c r="L116" t="n">
         <v>3.2880258899676376</v>
@@ -54234,7 +54234,7 @@
         <v>0.8844506048387096</v>
       </c>
       <c r="K117" t="n">
-        <v>0.8688357659325945</v>
+        <v>0.8688357659325944</v>
       </c>
       <c r="L117" t="n">
         <v>3.5958549222797926</v>
@@ -54288,7 +54288,7 @@
         <v>0.028571428571429577</v>
       </c>
       <c r="AC117" t="n">
-        <v>-0.3815986711501843</v>
+        <v>-0.3815986711501842</v>
       </c>
       <c r="AD117" t="n">
         <v>17.0</v>
@@ -55110,7 +55110,7 @@
         <v>0.43998865927419367</v>
       </c>
       <c r="K119" t="n">
-        <v>0.7378562698487683</v>
+        <v>0.7378562698487684</v>
       </c>
       <c r="L119" t="n">
         <v>3.553956834532374</v>
@@ -55164,7 +55164,7 @@
         <v>0.0581954084356659</v>
       </c>
       <c r="AC119" t="n">
-        <v>-0.11481481481481508</v>
+        <v>-0.11481481481481488</v>
       </c>
       <c r="AD119" t="n">
         <v>5.0</v>
@@ -55575,7 +55575,7 @@
         <v>0.8120589717741935</v>
       </c>
       <c r="K120" t="n">
-        <v>0.8461181181575844</v>
+        <v>0.8461181181575843</v>
       </c>
       <c r="L120" t="n">
         <v>3.066666666666667</v>
@@ -56028,7 +56028,7 @@
         <v>0.4497992871543779</v>
       </c>
       <c r="K121" t="n">
-        <v>0.7572925867229483</v>
+        <v>0.7572925867229481</v>
       </c>
       <c r="L121" t="n">
         <v>2.0084745762711864</v>
@@ -56082,7 +56082,7 @@
         <v>-0.1288081239978611</v>
       </c>
       <c r="AC121" t="n">
-        <v>-0.08696479543292072</v>
+        <v>-0.0869647954329203</v>
       </c>
       <c r="AD121" t="n">
         <v>6.0</v>
@@ -56551,7 +56551,7 @@
         <v>0.12177121771217728</v>
       </c>
       <c r="AC122" t="n">
-        <v>-0.4623655913978495</v>
+        <v>-0.46236559139784955</v>
       </c>
       <c r="AD122" t="n">
         <v>18.0</v>
@@ -56934,7 +56934,7 @@
         <v>0.9147555443548387</v>
       </c>
       <c r="K123" t="n">
-        <v>0.8544534169445297</v>
+        <v>0.8544534169445298</v>
       </c>
       <c r="L123" t="n">
         <v>2.4525862068965516</v>
@@ -56988,7 +56988,7 @@
         <v>0.25338276181649655</v>
       </c>
       <c r="AC123" t="n">
-        <v>-0.4270992217137939</v>
+        <v>-0.42709922171379394</v>
       </c>
       <c r="AD123" t="n">
         <v>21.0</v>
@@ -57828,7 +57828,7 @@
         <v>0.6410975302419355</v>
       </c>
       <c r="K125" t="n">
-        <v>0.8228232760497193</v>
+        <v>0.8228232760497197</v>
       </c>
       <c r="L125" t="n">
         <v>3.5968379446640317</v>
@@ -58287,7 +58287,7 @@
         <v>0.6438382056451613</v>
       </c>
       <c r="K126" t="n">
-        <v>0.8564304711651706</v>
+        <v>0.8564304711651707</v>
       </c>
       <c r="L126" t="n">
         <v>3.8817733990147785</v>
@@ -58341,7 +58341,7 @@
         <v>0.5850144092219061</v>
       </c>
       <c r="AC126" t="n">
-        <v>-0.2706118131715192</v>
+        <v>-0.2706118131715193</v>
       </c>
       <c r="AD126" t="n">
         <v>12.0</v>
@@ -58742,7 +58742,7 @@
         <v>0.584078881048387</v>
       </c>
       <c r="K127" t="n">
-        <v>0.8134885504190348</v>
+        <v>0.8134885504190347</v>
       </c>
       <c r="L127" t="n">
         <v>7.465714285714285</v>
@@ -58796,7 +58796,7 @@
         <v>0.3541341653666157</v>
       </c>
       <c r="AC127" t="n">
-        <v>-0.27585630743525485</v>
+        <v>-0.27585630743525463</v>
       </c>
       <c r="AD127" t="n">
         <v>14.0</v>
@@ -59209,7 +59209,7 @@
         <v>0.6980846774193549</v>
       </c>
       <c r="K128" t="n">
-        <v>0.8580859461667435</v>
+        <v>0.8580859461667434</v>
       </c>
       <c r="L128" t="n">
         <v>6.668161434977579</v>
@@ -59263,7 +59263,7 @@
         <v>0.6708792686205978</v>
       </c>
       <c r="AC128" t="n">
-        <v>-0.26110731373889257</v>
+        <v>-0.2611073137388928</v>
       </c>
       <c r="AD128" t="n">
         <v>5.0</v>
@@ -59716,7 +59716,7 @@
         <v>0.016656124815516704</v>
       </c>
       <c r="AC129" t="n">
-        <v>-0.2697795071335926</v>
+        <v>-0.26977950713359217</v>
       </c>
       <c r="AD129" t="n">
         <v>4.0</v>
@@ -60129,7 +60129,7 @@
         <v>0.5822202620967742</v>
       </c>
       <c r="K130" t="n">
-        <v>0.796226896169085</v>
+        <v>0.7962268961690856</v>
       </c>
       <c r="L130" t="n">
         <v>3.6535433070866143</v>
@@ -60568,7 +60568,7 @@
         <v>0.6153288810483873</v>
       </c>
       <c r="K131" t="n">
-        <v>0.7927912270586295</v>
+        <v>0.7927912270586294</v>
       </c>
       <c r="L131" t="n">
         <v>2.4886363636363638</v>
@@ -60622,7 +60622,7 @@
         <v>0.08357628765791872</v>
       </c>
       <c r="AC131" t="n">
-        <v>-0.5185185185185187</v>
+        <v>-0.5185185185185186</v>
       </c>
       <c r="AD131" t="n">
         <v>5.0</v>
@@ -61025,7 +61025,7 @@
         <v>0.55859375</v>
       </c>
       <c r="K132" t="n">
-        <v>0.8074120066556219</v>
+        <v>0.807412006655622</v>
       </c>
       <c r="L132" t="n">
         <v>4.2176470588235295</v>
@@ -61079,7 +61079,7 @@
         <v>0.15133531157270022</v>
       </c>
       <c r="AC132" t="n">
-        <v>-0.20870305092986544</v>
+        <v>-0.20870305092986433</v>
       </c>
       <c r="AD132" t="n">
         <v>5.0</v>
@@ -61484,7 +61484,7 @@
         <v>0.9860131048387096</v>
       </c>
       <c r="K133" t="n">
-        <v>0.8451988881577251</v>
+        <v>0.845198888157725</v>
       </c>
       <c r="L133" t="n">
         <v>2.2804878048780486</v>
@@ -61917,7 +61917,7 @@
         <v>0.6438382056451613</v>
       </c>
       <c r="K134" t="n">
-        <v>0.8162014830691497</v>
+        <v>0.8162014830691496</v>
       </c>
       <c r="L134" t="n">
         <v>4.765432098765432</v>
@@ -61971,7 +61971,7 @@
         <v>0.3478260869565217</v>
       </c>
       <c r="AC134" t="n">
-        <v>-0.13123844731977807</v>
+        <v>-0.13123844731977777</v>
       </c>
       <c r="AD134" t="n">
         <v>5.0</v>
@@ -62422,7 +62422,7 @@
         <v>-0.5447941888619859</v>
       </c>
       <c r="AC135" t="n">
-        <v>-0.8002354788069076</v>
+        <v>-0.8002354788069075</v>
       </c>
       <c r="AD135" t="n">
         <v>29.0</v>
@@ -62799,7 +62799,7 @@
         <v>0.9684349798387096</v>
       </c>
       <c r="K136" t="n">
-        <v>0.8571981962090212</v>
+        <v>0.8571981962090213</v>
       </c>
       <c r="L136" t="n">
         <v>3.657004830917874</v>
@@ -63224,7 +63224,7 @@
         <v>0.665070564516129</v>
       </c>
       <c r="K137" t="n">
-        <v>0.7994679525662446</v>
+        <v>0.7994679525662447</v>
       </c>
       <c r="L137" t="n">
         <v>3.130434782608696</v>
@@ -63278,7 +63278,7 @@
         <v>0.27323943661971845</v>
       </c>
       <c r="AC137" t="n">
-        <v>-0.4871916508538901</v>
+        <v>-0.4871916508538902</v>
       </c>
       <c r="AD137" t="n">
         <v>6.0</v>
@@ -63665,7 +63665,7 @@
         <v>0.8483492943548387</v>
       </c>
       <c r="K138" t="n">
-        <v>0.8458084269324772</v>
+        <v>0.845808426932477</v>
       </c>
       <c r="L138" t="n">
         <v>2.0104166666666665</v>
@@ -63719,7 +63719,7 @@
         <v>0.11906501095690299</v>
       </c>
       <c r="AC138" t="n">
-        <v>-0.3667217454982442</v>
+        <v>-0.36672174549824427</v>
       </c>
       <c r="AD138" t="n">
         <v>20.0</v>
@@ -64132,7 +64132,7 @@
         <v>0.7732484879032258</v>
       </c>
       <c r="K139" t="n">
-        <v>0.8518756178919449</v>
+        <v>0.8518756178919448</v>
       </c>
       <c r="L139" t="n">
         <v>5.951388888888889</v>
@@ -64186,7 +64186,7 @@
         <v>-0.1926355267644058</v>
       </c>
       <c r="AC139" t="n">
-        <v>-0.07299741602067193</v>
+        <v>-0.07299741602067172</v>
       </c>
       <c r="AD139" t="n">
         <v>8.0</v>
@@ -64589,7 +64589,7 @@
         <v>0.3480027721774194</v>
       </c>
       <c r="K140" t="n">
-        <v>0.8103284661560654</v>
+        <v>0.8103284661560652</v>
       </c>
       <c r="L140" t="n">
         <v>3.4725738396624473</v>
@@ -64643,7 +64643,7 @@
         <v>0.1505102040816314</v>
       </c>
       <c r="AC140" t="n">
-        <v>-0.563737676810973</v>
+        <v>-0.5637376768109719</v>
       </c>
       <c r="AD140" t="n">
         <v>6.0</v>
@@ -65036,7 +65036,7 @@
         <v>0.3945661791585431</v>
       </c>
       <c r="K141" t="n">
-        <v>0.6721441424803856</v>
+        <v>0.6721441424803853</v>
       </c>
       <c r="L141" t="n">
         <v>5.137176938369781</v>
@@ -65090,7 +65090,7 @@
         <v>0.314162473040978</v>
       </c>
       <c r="AC141" t="n">
-        <v>-0.4767801857585139</v>
+        <v>-0.476780185758514</v>
       </c>
       <c r="AD141" t="n">
         <v>7.0</v>
@@ -65561,7 +65561,7 @@
         <v>0.09147462180121484</v>
       </c>
       <c r="AC142" t="n">
-        <v>-0.3365088529638182</v>
+        <v>-0.3365088529638187</v>
       </c>
       <c r="AD142" t="n">
         <v>12.0</v>
@@ -65978,7 +65978,7 @@
         <v>0.9888797883064516</v>
       </c>
       <c r="K143" t="n">
-        <v>0.8428986036064084</v>
+        <v>0.8428986036064086</v>
       </c>
       <c r="L143" t="n">
         <v>2.3636363636363638</v>
@@ -66032,7 +66032,7 @@
         <v>0.16596685082872958</v>
       </c>
       <c r="AC143" t="n">
-        <v>-0.8007063213826855</v>
+        <v>-0.8007063213826856</v>
       </c>
       <c r="AD143" t="n">
         <v>32.0</v>
@@ -66411,7 +66411,7 @@
         <v>0.6796938004032257</v>
       </c>
       <c r="K144" t="n">
-        <v>0.8153002813950431</v>
+        <v>0.8153002813950428</v>
       </c>
       <c r="L144" t="n">
         <v>6.822519083969466</v>
@@ -66948,7 +66948,7 @@
         <v>-0.3217279174725979</v>
       </c>
       <c r="AC145" t="n">
-        <v>2.7866796711695186E-4</v>
+        <v>2.7866796711715987E-4</v>
       </c>
       <c r="AD145" t="n">
         <v>8.0</v>
@@ -67405,7 +67405,7 @@
         <v>0.25886524822695045</v>
       </c>
       <c r="AC146" t="n">
-        <v>-0.3299748110831236</v>
+        <v>-0.32997481108312327</v>
       </c>
       <c r="AD146" t="n">
         <v>12.0</v>
@@ -67872,7 +67872,7 @@
         <v>0.40381214383965486</v>
       </c>
       <c r="AC147" t="n">
-        <v>-0.27835051546391754</v>
+        <v>-0.27835051546391765</v>
       </c>
       <c r="AD147" t="n">
         <v>8.0</v>
@@ -68277,7 +68277,7 @@
         <v>0.9497227822580645</v>
       </c>
       <c r="K148" t="n">
-        <v>0.8383723968710558</v>
+        <v>0.8383723968710559</v>
       </c>
       <c r="L148" t="n">
         <v>3.1278195488721803</v>
@@ -68331,7 +68331,7 @@
         <v>0.2644960435854194</v>
       </c>
       <c r="AC148" t="n">
-        <v>-0.51286123479198</v>
+        <v>-0.5128612347919799</v>
       </c>
       <c r="AD148" t="n">
         <v>29.0</v>
@@ -68738,7 +68738,7 @@
         <v>0.9378465221774194</v>
       </c>
       <c r="K149" t="n">
-        <v>0.8252826637420934</v>
+        <v>0.8252826637420931</v>
       </c>
       <c r="L149" t="n">
         <v>3.1177570093457945</v>
@@ -68792,7 +68792,7 @@
         <v>0.15181932245922247</v>
       </c>
       <c r="AC149" t="n">
-        <v>-0.4866337541804167</v>
+        <v>-0.4866337541804166</v>
       </c>
       <c r="AD149" t="n">
         <v>32.0</v>
@@ -69255,7 +69255,7 @@
         <v>-0.06047819971870527</v>
       </c>
       <c r="AC150" t="n">
-        <v>-0.13085501858736062</v>
+        <v>-0.13085501858736065</v>
       </c>
       <c r="AD150" t="n">
         <v>7.0</v>
@@ -69658,7 +69658,7 @@
         <v>0.1803332913306451</v>
       </c>
       <c r="K151" t="n">
-        <v>0.7392205254486407</v>
+        <v>0.7392205254486415</v>
       </c>
       <c r="L151" t="n">
         <v>2.564625850340136</v>
@@ -69712,7 +69712,7 @@
         <v>-0.0723404255319153</v>
       </c>
       <c r="AC151" t="n">
-        <v>-0.4176201372997708</v>
+        <v>-0.4176201372997711</v>
       </c>
       <c r="AD151" t="n">
         <v>4.0</v>
@@ -70137,7 +70137,7 @@
         <v>0.282057351670507</v>
       </c>
       <c r="K152" t="n">
-        <v>0.6583622520832485</v>
+        <v>0.6583622520832483</v>
       </c>
       <c r="L152" t="n">
         <v>3.104</v>
@@ -70191,7 +70191,7 @@
         <v>0.08765652951699399</v>
       </c>
       <c r="AC152" t="n">
-        <v>-0.1365083407614924</v>
+        <v>-0.13650834076149307</v>
       </c>
       <c r="AD152" t="n">
         <v>7.0</v>
@@ -70608,7 +70608,7 @@
         <v>0.2897427935387865</v>
       </c>
       <c r="K153" t="n">
-        <v>0.6853080941788459</v>
+        <v>0.6853080941788458</v>
       </c>
       <c r="L153" t="n">
         <v>3.715458276333789</v>
@@ -70662,7 +70662,7 @@
         <v>0.09887359198998695</v>
       </c>
       <c r="AC153" t="n">
-        <v>-0.1329817291391976</v>
+        <v>-0.13298172913919756</v>
       </c>
       <c r="AD153" t="n">
         <v>18.0</v>
@@ -71089,7 +71089,7 @@
         <v>0.5573651713709677</v>
       </c>
       <c r="K154" t="n">
-        <v>0.747740057413895</v>
+        <v>0.7477400574138949</v>
       </c>
       <c r="L154" t="n">
         <v>7.048192771084337</v>
@@ -71143,7 +71143,7 @@
         <v>0.6179245283018869</v>
       </c>
       <c r="AC154" t="n">
-        <v>-0.10447761194029838</v>
+        <v>-0.10447761194029812</v>
       </c>
       <c r="AD154" t="n">
         <v>6.0</v>
@@ -71550,7 +71550,7 @@
         <v>0.4490297379032258</v>
       </c>
       <c r="K155" t="n">
-        <v>0.6975678400250118</v>
+        <v>0.6975678400250122</v>
       </c>
       <c r="L155" t="n">
         <v>2.467889908256881</v>
@@ -71604,7 +71604,7 @@
         <v>-0.028037383177569125</v>
       </c>
       <c r="AC155" t="n">
-        <v>-0.3418790178917202</v>
+        <v>-0.34187901789171976</v>
       </c>
       <c r="AD155" t="n">
         <v>5.0</v>
@@ -72015,7 +72015,7 @@
         <v>0.4747983870967742</v>
       </c>
       <c r="K156" t="n">
-        <v>0.829331717641601</v>
+        <v>0.8293317176416011</v>
       </c>
       <c r="L156" t="n">
         <v>2.993197278911565</v>
@@ -72466,7 +72466,7 @@
         <v>0.6290322580645161</v>
       </c>
       <c r="K157" t="n">
-        <v>0.7684703325448897</v>
+        <v>0.7684703325448898</v>
       </c>
       <c r="L157" t="n">
         <v>2.863013698630137</v>
@@ -72520,7 +72520,7 @@
         <v>0.15331807780320522</v>
       </c>
       <c r="AC157" t="n">
-        <v>-0.6979827527257534</v>
+        <v>-0.6979827527257536</v>
       </c>
       <c r="AD157" t="n">
         <v>5.0</v>
@@ -72907,7 +72907,7 @@
         <v>0.7146547379032258</v>
       </c>
       <c r="K158" t="n">
-        <v>0.8573817277625267</v>
+        <v>0.8573817277625265</v>
       </c>
       <c r="L158" t="n">
         <v>4.1438356164383565</v>
@@ -72961,7 +72961,7 @@
         <v>0.7914494264859229</v>
       </c>
       <c r="AC158" t="n">
-        <v>-0.12352377912543888</v>
+        <v>-0.1235237791254387</v>
       </c>
       <c r="AD158" t="n">
         <v>6.0</v>
@@ -73420,7 +73420,7 @@
         <v>0.048323210984949426</v>
       </c>
       <c r="AC159" t="n">
-        <v>-0.17819106660308368</v>
+        <v>-0.17819106660308384</v>
       </c>
       <c r="AD159" t="n">
         <v>8.0</v>
@@ -73817,7 +73817,7 @@
         <v>0.8445060483870968</v>
       </c>
       <c r="K160" t="n">
-        <v>0.8400140686227194</v>
+        <v>0.8400140686227197</v>
       </c>
       <c r="L160" t="n">
         <v>3.165562913907285</v>
@@ -74248,7 +74248,7 @@
         <v>0.6004284274193549</v>
       </c>
       <c r="K161" t="n">
-        <v>0.808975120188952</v>
+        <v>0.8089751201889519</v>
       </c>
       <c r="L161" t="n">
         <v>2.4339622641509435</v>
@@ -74747,7 +74747,7 @@
         <v>0.0780141843971626</v>
       </c>
       <c r="AC162" t="n">
-        <v>-0.4269706336939724</v>
+        <v>-0.42697063369397226</v>
       </c>
       <c r="AD162" t="n">
         <v>9.0</v>
@@ -75190,7 +75190,7 @@
         <v>0.6014099783080261</v>
       </c>
       <c r="AC163" t="n">
-        <v>0.0631417443644519</v>
+        <v>0.06314174436445234</v>
       </c>
       <c r="AD163" t="n">
         <v>6.0</v>
@@ -75605,7 +75605,7 @@
         <v>0.7212071572580645</v>
       </c>
       <c r="K164" t="n">
-        <v>0.8298144802682011</v>
+        <v>0.8298144802682013</v>
       </c>
       <c r="L164" t="n">
         <v>3.2815533980582523</v>
@@ -76100,7 +76100,7 @@
         <v>-0.05835543766578589</v>
       </c>
       <c r="AC165" t="n">
-        <v>-0.41552653803677</v>
+        <v>-0.41552653803677014</v>
       </c>
       <c r="AD165" t="n">
         <v>19.0</v>
@@ -76499,7 +76499,7 @@
         <v>0.668913810483871</v>
       </c>
       <c r="K166" t="n">
-        <v>0.794771507532538</v>
+        <v>0.7947715075325377</v>
       </c>
       <c r="L166" t="n">
         <v>3.513888888888889</v>
@@ -76553,7 +76553,7 @@
         <v>-0.25938076686487493</v>
       </c>
       <c r="AC166" t="n">
-        <v>-0.25775363588575423</v>
+        <v>-0.25775363588575456</v>
       </c>
       <c r="AD166" t="n">
         <v>7.0</v>
@@ -76952,7 +76952,7 @@
         <v>0.67578125</v>
       </c>
       <c r="K167" t="n">
-        <v>0.7993357899253288</v>
+        <v>0.7993357899253286</v>
       </c>
       <c r="L167" t="n">
         <v>3.149532710280374</v>
@@ -77397,7 +77397,7 @@
         <v>0.7098664314516129</v>
       </c>
       <c r="K168" t="n">
-        <v>0.8294396717988661</v>
+        <v>0.8294396717988664</v>
       </c>
       <c r="L168" t="n">
         <v>2.5076923076923077</v>
@@ -77848,7 +77848,7 @@
         <v>0.5257056451612904</v>
       </c>
       <c r="K169" t="n">
-        <v>0.8047152598221594</v>
+        <v>0.8047152598221585</v>
       </c>
       <c r="L169" t="n">
         <v>2.168539325842697</v>
@@ -77902,7 +77902,7 @@
         <v>-0.01971945517381633</v>
       </c>
       <c r="AC169" t="n">
-        <v>-0.3067669172932329</v>
+        <v>-0.3067669172932336</v>
       </c>
       <c r="AD169" t="n">
         <v>3.0</v>
@@ -78317,7 +78317,7 @@
         <v>0.7488659274193549</v>
       </c>
       <c r="K170" t="n">
-        <v>0.7942496243502061</v>
+        <v>0.7942496243502062</v>
       </c>
       <c r="L170" t="n">
         <v>3.6160714285714284</v>
@@ -78776,7 +78776,7 @@
         <v>0.9478641633064516</v>
       </c>
       <c r="K171" t="n">
-        <v>0.8292797584362684</v>
+        <v>0.8292797584362678</v>
       </c>
       <c r="L171" t="n">
         <v>3.4421965317919074</v>
@@ -78830,7 +78830,7 @@
         <v>-0.09960159362549777</v>
       </c>
       <c r="AC171" t="n">
-        <v>-0.6138718972751631</v>
+        <v>-0.6138718972751632</v>
       </c>
       <c r="AD171" t="n">
         <v>32.0</v>
@@ -79279,7 +79279,7 @@
         <v>0.40497960331973537</v>
       </c>
       <c r="AC172" t="n">
-        <v>-0.2271352844557266</v>
+        <v>-0.2271352844557265</v>
       </c>
       <c r="AD172" t="n">
         <v>16.0</v>
@@ -79748,7 +79748,7 @@
         <v>-0.24639076034648721</v>
       </c>
       <c r="AC173" t="n">
-        <v>-0.3138519676830859</v>
+        <v>-0.3138519676830854</v>
       </c>
       <c r="AD173" t="n">
         <v>11.0</v>
@@ -80143,7 +80143,7 @@
         <v>0.8296370967741935</v>
       </c>
       <c r="K174" t="n">
-        <v>0.8444704724311596</v>
+        <v>0.8444704724311597</v>
       </c>
       <c r="L174" t="n">
         <v>4.0</v>
@@ -80197,7 +80197,7 @@
         <v>0.3580304806565059</v>
       </c>
       <c r="AC174" t="n">
-        <v>-0.4965609280361359</v>
+        <v>-0.496560928036136</v>
       </c>
       <c r="AD174" t="n">
         <v>15.0</v>
@@ -81047,7 +81047,7 @@
         <v>0.6768523185483871</v>
       </c>
       <c r="K176" t="n">
-        <v>0.7092537095856135</v>
+        <v>0.7092537095856134</v>
       </c>
       <c r="L176" t="n">
         <v>6.132701421800948</v>
@@ -81101,7 +81101,7 @@
         <v>0.018450184501843016</v>
       </c>
       <c r="AC176" t="n">
-        <v>-0.4698857736240913</v>
+        <v>-0.46988577362409045</v>
       </c>
       <c r="AD176" t="n">
         <v>5.0</v>
@@ -81504,7 +81504,7 @@
         <v>0.7033140120967744</v>
       </c>
       <c r="K177" t="n">
-        <v>0.8127159250370546</v>
+        <v>0.8127159250370548</v>
       </c>
       <c r="L177" t="n">
         <v>3.3248407643312103</v>
@@ -81558,7 +81558,7 @@
         <v>0.17974322396576342</v>
       </c>
       <c r="AC177" t="n">
-        <v>-0.13861386138613851</v>
+        <v>-0.138613861386139</v>
       </c>
       <c r="AD177" t="n">
         <v>11.0</v>
@@ -81969,7 +81969,7 @@
         <v>0.9212449596774194</v>
       </c>
       <c r="K178" t="n">
-        <v>0.8698609482325028</v>
+        <v>0.8698609482325026</v>
       </c>
       <c r="L178" t="n">
         <v>2.4901960784313726</v>
@@ -82412,7 +82412,7 @@
         <v>0.9744518649193549</v>
       </c>
       <c r="K179" t="n">
-        <v>0.8390806314099838</v>
+        <v>0.8390806314099836</v>
       </c>
       <c r="L179" t="n">
         <v>1.9342105263157894</v>
@@ -82466,7 +82466,7 @@
         <v>-0.20821325648414984</v>
       </c>
       <c r="AC179" t="n">
-        <v>-0.7635283653193832</v>
+        <v>-0.7635283653193833</v>
       </c>
       <c r="AD179" t="n">
         <v>32.0</v>
@@ -82905,7 +82905,7 @@
         <v>-0.011235955056180098</v>
       </c>
       <c r="AC180" t="n">
-        <v>-0.2463844333420986</v>
+        <v>-0.24638443334209822</v>
       </c>
       <c r="AD180" t="n">
         <v>3.0</v>
@@ -83322,7 +83322,7 @@
         <v>0.8187373991935484</v>
       </c>
       <c r="K181" t="n">
-        <v>0.8514246935798718</v>
+        <v>0.8514246935798719</v>
       </c>
       <c r="L181" t="n">
         <v>5.439153439153439</v>
@@ -83376,7 +83376,7 @@
         <v>0.1400651465798054</v>
       </c>
       <c r="AC181" t="n">
-        <v>-0.3006202402449556</v>
+        <v>-0.30062024024495565</v>
       </c>
       <c r="AD181" t="n">
         <v>11.0</v>
@@ -83817,7 +83817,7 @@
         <v>-0.03918892571651251</v>
       </c>
       <c r="AC182" t="n">
-        <v>-0.28896001066826704</v>
+        <v>-0.2889600106682672</v>
       </c>
       <c r="AD182" t="n">
         <v>17.0</v>
@@ -84230,7 +84230,7 @@
         <v>0.6444682459677419</v>
       </c>
       <c r="K183" t="n">
-        <v>0.74210691575238</v>
+        <v>0.7421069157523801</v>
       </c>
       <c r="L183" t="n">
         <v>6.231884057971015</v>
@@ -84284,7 +84284,7 @@
         <v>0.7831800262812079</v>
       </c>
       <c r="AC183" t="n">
-        <v>-0.7973884917941141</v>
+        <v>-0.7973884917941139</v>
       </c>
       <c r="AD183" t="n">
         <v>9.0</v>
@@ -84657,7 +84657,7 @@
         <v>0.9380355342741935</v>
       </c>
       <c r="K184" t="n">
-        <v>0.8242997735209119</v>
+        <v>0.8242997735209115</v>
       </c>
       <c r="L184" t="n">
         <v>3.129139072847682</v>
@@ -84711,7 +84711,7 @@
         <v>-0.1385258755880812</v>
       </c>
       <c r="AC184" t="n">
-        <v>-0.4221703427615223</v>
+        <v>-0.42217034276152227</v>
       </c>
       <c r="AD184" t="n">
         <v>32.0</v>
@@ -85142,7 +85142,7 @@
         <v>0.7355405745967742</v>
       </c>
       <c r="K185" t="n">
-        <v>0.7990229613149599</v>
+        <v>0.7990229613149598</v>
       </c>
       <c r="L185" t="n">
         <v>4.078817733990148</v>
@@ -85196,7 +85196,7 @@
         <v>0.07644787644787705</v>
       </c>
       <c r="AC185" t="n">
-        <v>-0.11865828092243176</v>
+        <v>-0.11865828092243202</v>
       </c>
       <c r="AD185" t="n">
         <v>11.0</v>
@@ -86050,7 +86050,7 @@
         <v>0.7040259576612903</v>
       </c>
       <c r="K187" t="n">
-        <v>0.7932917025722714</v>
+        <v>0.7932917025722716</v>
       </c>
       <c r="L187" t="n">
         <v>2.2916666666666665</v>
@@ -86104,7 +86104,7 @@
         <v>0.0857142857142849</v>
       </c>
       <c r="AC187" t="n">
-        <v>-0.11900338760791189</v>
+        <v>-0.11900338760791218</v>
       </c>
       <c r="AD187" t="n">
         <v>9.0</v>
